--- a/test/excel_test.xlsx
+++ b/test/excel_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Scripts\1-Complete-Projects\Game-Library-Tracker\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Scripts\easierexcel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB015B-602F-4BAD-A12E-422979EE38F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA774B1-9D9E-4BB9-9DD7-52348B813B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,281 +223,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF31B149"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF171A21"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003791"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4000F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00518E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF00A4EF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF581C6C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1103,37 +829,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="48" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="Removed">
+    <cfRule type="containsText" dxfId="20" priority="38" operator="containsText" text="Removed">
       <formula>NOT(ISERROR(SEARCH("Removed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="42" operator="containsText" text="Software">
+    <cfRule type="containsText" dxfId="19" priority="42" operator="containsText" text="Software">
       <formula>NOT(ISERROR(SEARCH("Software",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="Demo">
+    <cfRule type="containsText" dxfId="18" priority="44" operator="containsText" text="Demo">
       <formula>NOT(ISERROR(SEARCH("Demo",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="Waiting">
+    <cfRule type="containsText" dxfId="17" priority="45" operator="containsText" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="Unplayed">
+    <cfRule type="containsText" dxfId="16" priority="46" operator="containsText" text="Unplayed">
       <formula>NOT(ISERROR(SEARCH("Unplayed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="Playing">
+    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="Playing">
       <formula>NOT(ISERROR(SEARCH("Playing",C1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="41" priority="48" operator="beginsWith" text="Played">
+    <cfRule type="beginsWith" dxfId="14" priority="48" operator="beginsWith" text="Played">
       <formula>LEFT(C1,LEN("Played"))="Played"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="49" operator="containsText" text="Ignore">
+    <cfRule type="containsText" dxfId="13" priority="49" operator="containsText" text="Ignore">
       <formula>NOT(ISERROR(SEARCH("Ignore",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="50" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="12" priority="50" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="51" operator="containsText" text="Quit">
+    <cfRule type="containsText" dxfId="11" priority="51" operator="containsText" text="Quit">
       <formula>NOT(ISERROR(SEARCH("Quit",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1147,7 +873,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/excel_test.xlsx
+++ b/test/excel_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Scripts\easierexcel\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Packages\easierexcel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA774B1-9D9E-4BB9-9DD7-52348B813B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A087F7-1511-4034-AEF7-32F4677423D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4500" yWindow="10875" windowWidth="9870" windowHeight="7875" tabRatio="228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="8">
         <v>31</v>
@@ -908,56 +908,34 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8">
         <v>36</v>
       </c>
     </row>

--- a/test/excel_test.xlsx
+++ b/test/excel_test.xlsx
@@ -1,116 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Packages\easierexcel\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A087F7-1511-4034-AEF7-32F4677423D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4500" yWindow="10875" windowWidth="9870" windowHeight="7875" tabRatio="228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-4500" yWindow="10875" windowWidth="9870" windowHeight="7875" tabRatio="228" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Birth Month</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Allison</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Rob</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -185,38 +119,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -250,7 +184,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -276,11 +210,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="-0.249946592608417"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -290,7 +224,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="-0.249946592608417"/>
         </patternFill>
       </fill>
     </dxf>
@@ -300,13 +234,13 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.7999816888943144"/>
       </font>
       <fill>
         <patternFill>
@@ -326,7 +260,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.7999816888943144"/>
       </font>
       <fill>
         <patternFill>
@@ -360,7 +294,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -386,11 +320,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="-0.249946592608417"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -400,7 +334,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="-0.249946592608417"/>
         </patternFill>
       </fill>
     </dxf>
@@ -410,13 +344,13 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.7999816888943144"/>
       </font>
       <fill>
         <patternFill>
@@ -436,7 +370,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.7999816888943144"/>
       </font>
       <fill>
         <patternFill>
@@ -446,14 +380,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -719,7 +713,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -727,95 +725,124 @@
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="233" width="9.140625" style="2" customWidth="1"/>
-    <col min="234" max="16384" width="9.140625" style="2"/>
+    <col width="8.85546875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="54.28515625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="9.140625" customWidth="1" style="2" min="4" max="233"/>
+    <col width="9.140625" customWidth="1" style="2" min="234" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8">
+    <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Birth Month</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8">
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8">
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8">
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Allison</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8">
+    <row r="6">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8">
+    <row r="7">
+      <c r="A7" s="10" t="inlineStr">
+        <is>
+          <t>Rob</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="n">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="A1:C1"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="60">
       <colorScale>
@@ -829,113 +856,139 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule type="cellIs" priority="27" operator="equal" dxfId="10">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="38" operator="containsText" text="Removed">
+    <cfRule type="containsText" priority="38" operator="containsText" dxfId="9" text="Removed">
       <formula>NOT(ISERROR(SEARCH("Removed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="42" operator="containsText" text="Software">
+    <cfRule type="containsText" priority="42" operator="containsText" dxfId="8" text="Software">
       <formula>NOT(ISERROR(SEARCH("Software",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="44" operator="containsText" text="Demo">
+    <cfRule type="containsText" priority="44" operator="containsText" dxfId="7" text="Demo">
       <formula>NOT(ISERROR(SEARCH("Demo",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="45" operator="containsText" text="Waiting">
+    <cfRule type="containsText" priority="45" operator="containsText" dxfId="6" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="46" operator="containsText" text="Unplayed">
+    <cfRule type="containsText" priority="46" operator="containsText" dxfId="5" text="Unplayed">
       <formula>NOT(ISERROR(SEARCH("Unplayed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="Playing">
+    <cfRule type="containsText" priority="47" operator="containsText" dxfId="3" text="Playing">
       <formula>NOT(ISERROR(SEARCH("Playing",C1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="48" operator="beginsWith" text="Played">
+    <cfRule type="beginsWith" priority="48" operator="beginsWith" dxfId="3" text="Played">
       <formula>LEFT(C1,LEN("Played"))="Played"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="49" operator="containsText" text="Ignore">
+    <cfRule type="containsText" priority="49" operator="containsText" dxfId="2" text="Ignore">
       <formula>NOT(ISERROR(SEARCH("Ignore",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="50" operator="containsText" text="Finished">
+    <cfRule type="containsText" priority="50" operator="containsText" dxfId="1" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="51" operator="containsText" text="Quit">
+    <cfRule type="containsText" priority="51" operator="containsText" dxfId="0" text="Quit">
       <formula>NOT(ISERROR(SEARCH("Quit",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col width="8.85546875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="54.28515625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="9.140625" customWidth="1" style="2" min="4" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8">
+    <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Birth Month</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8">
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8">
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>Allison</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8">
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Rob</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="n">
         <v>36</v>
       </c>
     </row>
@@ -953,37 +1006,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="10">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Removed">
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="9" text="Removed">
       <formula>NOT(ISERROR(SEARCH("Removed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Software">
+    <cfRule type="containsText" priority="3" operator="containsText" dxfId="8" text="Software">
       <formula>NOT(ISERROR(SEARCH("Software",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Demo">
+    <cfRule type="containsText" priority="4" operator="containsText" dxfId="7" text="Demo">
       <formula>NOT(ISERROR(SEARCH("Demo",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Waiting">
+    <cfRule type="containsText" priority="5" operator="containsText" dxfId="6" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Unplayed">
+    <cfRule type="containsText" priority="6" operator="containsText" dxfId="5" text="Unplayed">
       <formula>NOT(ISERROR(SEARCH("Unplayed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Playing">
+    <cfRule type="containsText" priority="7" operator="containsText" dxfId="3" text="Playing">
       <formula>NOT(ISERROR(SEARCH("Playing",C1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="8" operator="beginsWith" text="Played">
+    <cfRule type="beginsWith" priority="8" operator="beginsWith" dxfId="3" text="Played">
       <formula>LEFT(C1,LEN("Played"))="Played"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Ignore">
+    <cfRule type="containsText" priority="9" operator="containsText" dxfId="2" text="Ignore">
       <formula>NOT(ISERROR(SEARCH("Ignore",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Finished">
+    <cfRule type="containsText" priority="10" operator="containsText" dxfId="1" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="Quit">
+    <cfRule type="containsText" priority="11" operator="containsText" dxfId="0" text="Quit">
       <formula>NOT(ISERROR(SEARCH("Quit",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/excel_test.xlsx
+++ b/test/excel_test.xlsx
@@ -1,50 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Packages\easierexcel\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE16771A-8A62-4D38-93CF-95CE6A17234E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-4500" yWindow="10875" windowWidth="9870" windowHeight="7875" tabRatio="228" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Links" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Birth Month</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Untouched Site Text</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>"=HYPERLINK("https://www.Stark.com/","Website")"</t>
+  </si>
+  <si>
+    <t>Birth Year</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="16"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -115,46 +199,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
@@ -184,7 +285,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.7999816888943144"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -210,11 +311,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="-0.249946592608417"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.7999816888943144"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -224,7 +325,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.249946592608417"/>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -234,13 +335,13 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.7999816888943144"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
       </font>
       <fill>
         <patternFill>
@@ -260,7 +361,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.7999816888943144"/>
+        <color theme="9" tint="0.79998168889431442"/>
       </font>
       <fill>
         <patternFill>
@@ -294,7 +395,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.7999816888943144"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -320,11 +421,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="-0.249946592608417"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.7999816888943144"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -334,7 +435,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.249946592608417"/>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -344,13 +445,13 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.7999816888943144"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
       </font>
       <fill>
         <patternFill>
@@ -370,7 +471,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.7999816888943144"/>
+        <color theme="9" tint="0.79998168889431442"/>
       </font>
       <fill>
         <patternFill>
@@ -380,74 +481,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -713,136 +754,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="8.85546875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="54.28515625" customWidth="1" style="4" min="2" max="2"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="9.140625" customWidth="1" style="2" min="4" max="233"/>
-    <col width="9.140625" customWidth="1" style="2" min="234" max="16384"/>
+    <col min="1" max="1" width="8.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="236" width="9.140625" style="2" customWidth="1"/>
+    <col min="237" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Birth Month</t>
-        </is>
-      </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="n">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1991</v>
+      </c>
+      <c r="D2" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="n">
+    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1990</v>
+      </c>
+      <c r="D3" s="8">
         <v>32</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>Brian</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="n">
+    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1989</v>
+      </c>
+      <c r="D4" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>Allison</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="n">
+    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1988</v>
+      </c>
+      <c r="D5" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>Daniel</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="n">
+    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1987</v>
+      </c>
+      <c r="D6" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>Rob</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="n">
+    <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1986</v>
+      </c>
+      <c r="D7" s="8">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="60">
       <colorScale>
@@ -855,39 +884,39 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" priority="27" operator="equal" dxfId="10">
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="38" operator="containsText" dxfId="9" text="Removed">
-      <formula>NOT(ISERROR(SEARCH("Removed",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="42" operator="containsText" dxfId="8" text="Software">
-      <formula>NOT(ISERROR(SEARCH("Software",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="44" operator="containsText" dxfId="7" text="Demo">
-      <formula>NOT(ISERROR(SEARCH("Demo",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="45" operator="containsText" dxfId="6" text="Waiting">
-      <formula>NOT(ISERROR(SEARCH("Waiting",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="46" operator="containsText" dxfId="5" text="Unplayed">
-      <formula>NOT(ISERROR(SEARCH("Unplayed",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="47" operator="containsText" dxfId="3" text="Playing">
-      <formula>NOT(ISERROR(SEARCH("Playing",C1)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" priority="48" operator="beginsWith" dxfId="3" text="Played">
-      <formula>LEFT(C1,LEN("Played"))="Played"</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="49" operator="containsText" dxfId="2" text="Ignore">
-      <formula>NOT(ISERROR(SEARCH("Ignore",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="50" operator="containsText" dxfId="1" text="Finished">
-      <formula>NOT(ISERROR(SEARCH("Finished",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="51" operator="containsText" dxfId="0" text="Quit">
-      <formula>NOT(ISERROR(SEARCH("Quit",C1)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="38" operator="containsText" text="Removed">
+      <formula>NOT(ISERROR(SEARCH("Removed",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="42" operator="containsText" text="Software">
+      <formula>NOT(ISERROR(SEARCH("Software",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="44" operator="containsText" text="Demo">
+      <formula>NOT(ISERROR(SEARCH("Demo",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="45" operator="containsText" text="Waiting">
+      <formula>NOT(ISERROR(SEARCH("Waiting",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="46" operator="containsText" text="Unplayed">
+      <formula>NOT(ISERROR(SEARCH("Unplayed",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="Playing">
+      <formula>NOT(ISERROR(SEARCH("Playing",D1)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="14" priority="48" operator="beginsWith" text="Played">
+      <formula>LEFT(D1,LEN("Played"))="Played"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="49" operator="containsText" text="Ignore">
+      <formula>NOT(ISERROR(SEARCH("Ignore",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="50" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="51" operator="containsText" text="Quit">
+      <formula>NOT(ISERROR(SEARCH("Quit",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -896,99 +925,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="8.85546875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="54.28515625" customWidth="1" style="4" min="2" max="2"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="9.140625" customWidth="1" style="2" min="4" max="16384"/>
+    <col min="1" max="1" width="8.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Birth Month</t>
-        </is>
-      </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="n">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>Brian</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>Allison</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>Rob</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8">
         <v>36</v>
       </c>
     </row>
@@ -1006,40 +1010,96 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="10">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="2" operator="containsText" dxfId="9" text="Removed">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Removed">
       <formula>NOT(ISERROR(SEARCH("Removed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="3" operator="containsText" dxfId="8" text="Software">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Software">
       <formula>NOT(ISERROR(SEARCH("Software",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="4" operator="containsText" dxfId="7" text="Demo">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Demo">
       <formula>NOT(ISERROR(SEARCH("Demo",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="5" operator="containsText" dxfId="6" text="Waiting">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="6" operator="containsText" dxfId="5" text="Unplayed">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Unplayed">
       <formula>NOT(ISERROR(SEARCH("Unplayed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="7" operator="containsText" dxfId="3" text="Playing">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Playing">
       <formula>NOT(ISERROR(SEARCH("Playing",C1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" priority="8" operator="beginsWith" dxfId="3" text="Played">
+    <cfRule type="beginsWith" dxfId="3" priority="8" operator="beginsWith" text="Played">
       <formula>LEFT(C1,LEN("Played"))="Played"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="9" operator="containsText" dxfId="2" text="Ignore">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Ignore">
       <formula>NOT(ISERROR(SEARCH("Ignore",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="10" operator="containsText" dxfId="1" text="Finished">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="11" operator="containsText" dxfId="0" text="Quit">
+    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="Quit">
       <formula>NOT(ISERROR(SEARCH("Quit",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f>HYPERLINK("https://www.Stark.com/","Website")</f>
+        <v>Website</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A2">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
 </file>
--- a/test/excel_test.xlsx
+++ b/test/excel_test.xlsx
@@ -1,134 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Packages\easierexcel\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE16771A-8A62-4D38-93CF-95CE6A17234E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="228" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Links" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Links" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Birth Month</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Allison</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>Rob</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Untouched Site Text</t>
-  </si>
-  <si>
-    <t>Tony Stark</t>
-  </si>
-  <si>
-    <t>"=HYPERLINK("https://www.Stark.com/","Website")"</t>
-  </si>
-  <si>
-    <t>Birth Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -204,59 +123,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
@@ -285,7 +204,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -311,11 +230,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="-0.249946592608417"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -325,7 +244,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="-0.249946592608417"/>
         </patternFill>
       </fill>
     </dxf>
@@ -335,13 +254,13 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.7999816888943144"/>
       </font>
       <fill>
         <patternFill>
@@ -361,7 +280,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.7999816888943144"/>
       </font>
       <fill>
         <patternFill>
@@ -395,7 +314,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -421,11 +340,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="-0.249946592608417"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -435,7 +354,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="-0.249946592608417"/>
         </patternFill>
       </fill>
     </dxf>
@@ -445,13 +364,13 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.7999816888943144"/>
       </font>
       <fill>
         <patternFill>
@@ -471,7 +390,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.7999816888943144"/>
       </font>
       <fill>
         <patternFill>
@@ -481,14 +400,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -754,7 +733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -762,116 +745,148 @@
       <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="236" width="9.140625" style="2" customWidth="1"/>
-    <col min="237" max="16384" width="9.140625" style="2"/>
+    <col width="8.85546875" customWidth="1" style="16" min="1" max="1"/>
+    <col width="21" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="2" min="5" max="236"/>
+    <col width="9.140625" customWidth="1" style="2" min="237" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="13">
+    <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Birth Month</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Birth Year</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="14">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="C2" s="13" t="n">
         <v>1991</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="8" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13">
+    <row r="3" customFormat="1" s="14">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C3" s="13" t="n">
         <v>1990</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="8" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="13">
+    <row r="4" customFormat="1" s="14">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="n">
         <v>1989</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="8" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13">
+    <row r="5" customFormat="1" s="14">
+      <c r="A5" s="15" t="inlineStr">
+        <is>
+          <t>Allison</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="n">
         <v>1988</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="8" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="13">
+    <row r="6" customFormat="1" s="14">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="C6" s="13" t="n">
         <v>1987</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="8" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="13">
+    <row r="7" customFormat="1" s="14">
+      <c r="A7" s="15" t="inlineStr">
+        <is>
+          <t>Rob</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="n">
         <v>1986</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="8" t="n">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D1"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="60">
       <colorScale>
@@ -885,37 +900,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule type="cellIs" priority="27" operator="equal" dxfId="10">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="38" operator="containsText" text="Removed">
+    <cfRule type="containsText" priority="38" operator="containsText" dxfId="9" text="Removed">
       <formula>NOT(ISERROR(SEARCH("Removed",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="42" operator="containsText" text="Software">
+    <cfRule type="containsText" priority="42" operator="containsText" dxfId="8" text="Software">
       <formula>NOT(ISERROR(SEARCH("Software",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="44" operator="containsText" text="Demo">
+    <cfRule type="containsText" priority="44" operator="containsText" dxfId="7" text="Demo">
       <formula>NOT(ISERROR(SEARCH("Demo",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="45" operator="containsText" text="Waiting">
+    <cfRule type="containsText" priority="45" operator="containsText" dxfId="6" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="46" operator="containsText" text="Unplayed">
+    <cfRule type="containsText" priority="46" operator="containsText" dxfId="5" text="Unplayed">
       <formula>NOT(ISERROR(SEARCH("Unplayed",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="Playing">
+    <cfRule type="containsText" priority="47" operator="containsText" dxfId="3" text="Playing">
       <formula>NOT(ISERROR(SEARCH("Playing",D1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="48" operator="beginsWith" text="Played">
+    <cfRule type="beginsWith" priority="48" operator="beginsWith" dxfId="3" text="Played">
       <formula>LEFT(D1,LEN("Played"))="Played"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="49" operator="containsText" text="Ignore">
+    <cfRule type="containsText" priority="49" operator="containsText" dxfId="2" text="Ignore">
       <formula>NOT(ISERROR(SEARCH("Ignore",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="50" operator="containsText" text="Finished">
+    <cfRule type="containsText" priority="50" operator="containsText" dxfId="1" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="51" operator="containsText" text="Quit">
+    <cfRule type="containsText" priority="51" operator="containsText" dxfId="0" text="Quit">
       <formula>NOT(ISERROR(SEARCH("Quit",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -925,74 +940,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="A1" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col width="8.85546875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="54.28515625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="9.140625" customWidth="1" style="2" min="4" max="5"/>
+    <col width="9.140625" customWidth="1" style="2" min="6" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8">
+    <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Birth Month</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8">
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8">
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>Allison</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8">
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Rob</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="n">
         <v>36</v>
       </c>
     </row>
@@ -1010,37 +1051,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="10">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Removed">
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="9" text="Removed">
       <formula>NOT(ISERROR(SEARCH("Removed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Software">
+    <cfRule type="containsText" priority="3" operator="containsText" dxfId="8" text="Software">
       <formula>NOT(ISERROR(SEARCH("Software",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Demo">
+    <cfRule type="containsText" priority="4" operator="containsText" dxfId="7" text="Demo">
       <formula>NOT(ISERROR(SEARCH("Demo",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Waiting">
+    <cfRule type="containsText" priority="5" operator="containsText" dxfId="6" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Unplayed">
+    <cfRule type="containsText" priority="6" operator="containsText" dxfId="5" text="Unplayed">
       <formula>NOT(ISERROR(SEARCH("Unplayed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Playing">
+    <cfRule type="containsText" priority="7" operator="containsText" dxfId="3" text="Playing">
       <formula>NOT(ISERROR(SEARCH("Playing",C1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="8" operator="beginsWith" text="Played">
+    <cfRule type="beginsWith" priority="8" operator="beginsWith" dxfId="3" text="Played">
       <formula>LEFT(C1,LEN("Played"))="Played"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Ignore">
+    <cfRule type="containsText" priority="9" operator="containsText" dxfId="2" text="Ignore">
       <formula>NOT(ISERROR(SEARCH("Ignore",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Finished">
+    <cfRule type="containsText" priority="10" operator="containsText" dxfId="1" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="Quit">
+    <cfRule type="containsText" priority="11" operator="containsText" dxfId="0" text="Quit">
       <formula>NOT(ISERROR(SEARCH("Quit",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1049,41 +1090,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="35.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="12" t="str">
+    <row r="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Untouched Site Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Tony Stark</t>
+        </is>
+      </c>
+      <c r="B2" s="12">
         <f>HYPERLINK("https://www.Stark.com/","Website")</f>
-        <v>Website</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
+        <v/>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>"=HYPERLINK("https://www.Stark.com/","Website")"</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/test/excel_test.xlsx
+++ b/test/excel_test.xlsx
@@ -1,53 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Packages\easierexcel\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CE26BD-A8DD-4FD7-AAB7-289FAB3837DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="228" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Links" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Links" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Birth Month</t>
+  </si>
+  <si>
+    <t>Birth Year</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Untouched Site Text</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>"=HYPERLINK("https://www.Stark.com/","Website")"</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="16"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,59 +204,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
@@ -204,7 +285,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.7999816888943144"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -230,11 +311,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="-0.249946592608417"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.7999816888943144"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -244,7 +325,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.249946592608417"/>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -254,13 +335,13 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.7999816888943144"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
       </font>
       <fill>
         <patternFill>
@@ -280,7 +361,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.7999816888943144"/>
+        <color theme="9" tint="0.79998168889431442"/>
       </font>
       <fill>
         <patternFill>
@@ -314,7 +395,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.7999816888943144"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -340,11 +421,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="-0.249946592608417"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.7999816888943144"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -354,7 +435,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.249946592608417"/>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -364,13 +445,13 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.7999816888943144"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
       </font>
       <fill>
         <patternFill>
@@ -390,7 +471,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.7999816888943144"/>
+        <color theme="9" tint="0.79998168889431442"/>
       </font>
       <fill>
         <patternFill>
@@ -400,74 +481,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -733,160 +754,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="8.85546875" customWidth="1" style="16" min="1" max="1"/>
-    <col width="21" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="18.28515625" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="2" min="5" max="236"/>
-    <col width="9.140625" customWidth="1" style="2" min="237" max="16384"/>
+    <col min="1" max="1" width="8.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="238" width="9.140625" style="2" customWidth="1"/>
+    <col min="239" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Birth Month</t>
-        </is>
-      </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>Birth Year</t>
-        </is>
-      </c>
-      <c r="D1" s="9" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" customFormat="1" s="14">
-      <c r="A2" s="15" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-      <c r="C2" s="13" t="n">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="13">
         <v>1991</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="1" s="14">
-      <c r="A3" s="15" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-      <c r="C3" s="13" t="n">
+    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13">
         <v>1990</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="8">
         <v>32</v>
       </c>
     </row>
-    <row r="4" customFormat="1" s="14">
-      <c r="A4" s="15" t="inlineStr">
-        <is>
-          <t>Brian</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-      <c r="C4" s="13" t="n">
+    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13">
         <v>1989</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="1" s="14">
-      <c r="A5" s="15" t="inlineStr">
-        <is>
-          <t>Allison</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-      <c r="C5" s="13" t="n">
+    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13">
         <v>1988</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="1" s="14">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t>Daniel</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-      <c r="C6" s="13" t="n">
+    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="13">
         <v>1987</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="1" s="14">
-      <c r="A7" s="15" t="inlineStr">
-        <is>
-          <t>Rob</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="n">
+    <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13">
         <v>1986</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="8">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="60">
       <colorScale>
@@ -900,37 +885,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" priority="27" operator="equal" dxfId="10">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="38" operator="containsText" dxfId="9" text="Removed">
+    <cfRule type="containsText" dxfId="20" priority="38" operator="containsText" text="Removed">
       <formula>NOT(ISERROR(SEARCH("Removed",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="42" operator="containsText" dxfId="8" text="Software">
+    <cfRule type="containsText" dxfId="19" priority="42" operator="containsText" text="Software">
       <formula>NOT(ISERROR(SEARCH("Software",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="44" operator="containsText" dxfId="7" text="Demo">
+    <cfRule type="containsText" dxfId="18" priority="44" operator="containsText" text="Demo">
       <formula>NOT(ISERROR(SEARCH("Demo",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="45" operator="containsText" dxfId="6" text="Waiting">
+    <cfRule type="containsText" dxfId="17" priority="45" operator="containsText" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="46" operator="containsText" dxfId="5" text="Unplayed">
+    <cfRule type="containsText" dxfId="16" priority="46" operator="containsText" text="Unplayed">
       <formula>NOT(ISERROR(SEARCH("Unplayed",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="47" operator="containsText" dxfId="3" text="Playing">
+    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="Playing">
       <formula>NOT(ISERROR(SEARCH("Playing",D1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" priority="48" operator="beginsWith" dxfId="3" text="Played">
+    <cfRule type="beginsWith" dxfId="14" priority="48" operator="beginsWith" text="Played">
       <formula>LEFT(D1,LEN("Played"))="Played"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="49" operator="containsText" dxfId="2" text="Ignore">
+    <cfRule type="containsText" dxfId="13" priority="49" operator="containsText" text="Ignore">
       <formula>NOT(ISERROR(SEARCH("Ignore",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="50" operator="containsText" dxfId="1" text="Finished">
+    <cfRule type="containsText" dxfId="12" priority="50" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="51" operator="containsText" dxfId="0" text="Quit">
+    <cfRule type="containsText" dxfId="11" priority="51" operator="containsText" text="Quit">
       <formula>NOT(ISERROR(SEARCH("Quit",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -940,100 +925,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="8.85546875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="54.28515625" customWidth="1" style="4" min="2" max="2"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="9.140625" customWidth="1" style="2" min="4" max="5"/>
-    <col width="9.140625" customWidth="1" style="2" min="6" max="16384"/>
+    <col min="1" max="1" width="8.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Birth Month</t>
-        </is>
-      </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="n">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>Brian</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>Allison</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>Rob</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8">
         <v>36</v>
       </c>
     </row>
@@ -1051,37 +1010,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="10">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="2" operator="containsText" dxfId="9" text="Removed">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Removed">
       <formula>NOT(ISERROR(SEARCH("Removed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="3" operator="containsText" dxfId="8" text="Software">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Software">
       <formula>NOT(ISERROR(SEARCH("Software",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="4" operator="containsText" dxfId="7" text="Demo">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Demo">
       <formula>NOT(ISERROR(SEARCH("Demo",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="5" operator="containsText" dxfId="6" text="Waiting">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="6" operator="containsText" dxfId="5" text="Unplayed">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Unplayed">
       <formula>NOT(ISERROR(SEARCH("Unplayed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="7" operator="containsText" dxfId="3" text="Playing">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Playing">
       <formula>NOT(ISERROR(SEARCH("Playing",C1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" priority="8" operator="beginsWith" dxfId="3" text="Played">
+    <cfRule type="beginsWith" dxfId="3" priority="8" operator="beginsWith" text="Played">
       <formula>LEFT(C1,LEN("Played"))="Played"</formula>
     </cfRule>
-    <cfRule type="containsText" priority="9" operator="containsText" dxfId="2" text="Ignore">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Ignore">
       <formula>NOT(ISERROR(SEARCH("Ignore",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="10" operator="containsText" dxfId="1" text="Finished">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="11" operator="containsText" dxfId="0" text="Quit">
+    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="Quit">
       <formula>NOT(ISERROR(SEARCH("Quit",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1090,55 +1049,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="13.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="35.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Untouched Site Text</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>Tony Stark</t>
-        </is>
-      </c>
-      <c r="B2" s="12">
+    <row r="1" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="12" t="str">
         <f>HYPERLINK("https://www.Stark.com/","Website")</f>
-        <v/>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>"=HYPERLINK("https://www.Stark.com/","Website")"</t>
-        </is>
+        <v>Website</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/test/excel_test.xlsx
+++ b/test/excel_test.xlsx
@@ -1,134 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Packages\easierexcel\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CE26BD-A8DD-4FD7-AAB7-289FAB3837DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="228" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Links" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Links" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Birth Month</t>
-  </si>
-  <si>
-    <t>Birth Year</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Allison</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>Rob</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Untouched Site Text</t>
-  </si>
-  <si>
-    <t>Tony Stark</t>
-  </si>
-  <si>
-    <t>"=HYPERLINK("https://www.Stark.com/","Website")"</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -204,59 +123,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
@@ -285,7 +204,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -311,11 +230,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="-0.249946592608417"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -325,7 +244,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="-0.249946592608417"/>
         </patternFill>
       </fill>
     </dxf>
@@ -335,13 +254,13 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.7999816888943144"/>
       </font>
       <fill>
         <patternFill>
@@ -361,7 +280,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.7999816888943144"/>
       </font>
       <fill>
         <patternFill>
@@ -395,7 +314,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -421,11 +340,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="-0.249946592608417"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -435,7 +354,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="-0.249946592608417"/>
         </patternFill>
       </fill>
     </dxf>
@@ -445,13 +364,13 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.7999816888943144"/>
       </font>
       <fill>
         <patternFill>
@@ -471,7 +390,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.7999816888943144"/>
       </font>
       <fill>
         <patternFill>
@@ -481,14 +400,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -754,7 +733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -762,116 +745,148 @@
       <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="238" width="9.140625" style="2" customWidth="1"/>
-    <col min="239" max="16384" width="9.140625" style="2"/>
+    <col width="8.85546875" customWidth="1" style="16" min="1" max="1"/>
+    <col width="30.7109375" customWidth="1" style="4" min="2" max="2"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="2" min="5" max="238"/>
+    <col width="9.140625" customWidth="1" style="2" min="239" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="13">
+    <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Birth Month</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Birth Year</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="14">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="C2" s="13" t="n">
         <v>1991</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="8" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="13">
+    <row r="3" customFormat="1" s="14">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C3" s="13" t="n">
         <v>1990</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="8" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="13">
+    <row r="4" customFormat="1" s="14">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="n">
         <v>1989</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="8" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="13">
+    <row r="5" customFormat="1" s="14">
+      <c r="A5" s="15" t="inlineStr">
+        <is>
+          <t>Allison</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="n">
         <v>1988</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="8" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="13">
+    <row r="6" customFormat="1" s="14">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="C6" s="13" t="n">
         <v>1987</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="8" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="13">
+    <row r="7" customFormat="1" s="14">
+      <c r="A7" s="15" t="inlineStr">
+        <is>
+          <t>Rob</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="n">
         <v>1986</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="8" t="n">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D1"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="60">
       <colorScale>
@@ -885,37 +900,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule type="cellIs" priority="27" operator="equal" dxfId="10">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="38" operator="containsText" text="Removed">
+    <cfRule type="containsText" priority="38" operator="containsText" dxfId="9" text="Removed">
       <formula>NOT(ISERROR(SEARCH("Removed",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="42" operator="containsText" text="Software">
+    <cfRule type="containsText" priority="42" operator="containsText" dxfId="8" text="Software">
       <formula>NOT(ISERROR(SEARCH("Software",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="44" operator="containsText" text="Demo">
+    <cfRule type="containsText" priority="44" operator="containsText" dxfId="7" text="Demo">
       <formula>NOT(ISERROR(SEARCH("Demo",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="45" operator="containsText" text="Waiting">
+    <cfRule type="containsText" priority="45" operator="containsText" dxfId="6" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="46" operator="containsText" text="Unplayed">
+    <cfRule type="containsText" priority="46" operator="containsText" dxfId="5" text="Unplayed">
       <formula>NOT(ISERROR(SEARCH("Unplayed",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="Playing">
+    <cfRule type="containsText" priority="47" operator="containsText" dxfId="3" text="Playing">
       <formula>NOT(ISERROR(SEARCH("Playing",D1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="48" operator="beginsWith" text="Played">
+    <cfRule type="beginsWith" priority="48" operator="beginsWith" dxfId="3" text="Played">
       <formula>LEFT(D1,LEN("Played"))="Played"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="49" operator="containsText" text="Ignore">
+    <cfRule type="containsText" priority="49" operator="containsText" dxfId="2" text="Ignore">
       <formula>NOT(ISERROR(SEARCH("Ignore",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="50" operator="containsText" text="Finished">
+    <cfRule type="containsText" priority="50" operator="containsText" dxfId="1" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="51" operator="containsText" text="Quit">
+    <cfRule type="containsText" priority="51" operator="containsText" dxfId="0" text="Quit">
       <formula>NOT(ISERROR(SEARCH("Quit",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -925,74 +940,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col width="8.85546875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="54.28515625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="9.140625" customWidth="1" style="2" min="4" max="7"/>
+    <col width="9.140625" customWidth="1" style="2" min="8" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8">
+    <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Birth Month</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8">
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8">
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>Allison</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8">
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Rob</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="n">
         <v>36</v>
       </c>
     </row>
@@ -1010,37 +1051,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="10">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Removed">
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="9" text="Removed">
       <formula>NOT(ISERROR(SEARCH("Removed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Software">
+    <cfRule type="containsText" priority="3" operator="containsText" dxfId="8" text="Software">
       <formula>NOT(ISERROR(SEARCH("Software",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Demo">
+    <cfRule type="containsText" priority="4" operator="containsText" dxfId="7" text="Demo">
       <formula>NOT(ISERROR(SEARCH("Demo",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Waiting">
+    <cfRule type="containsText" priority="5" operator="containsText" dxfId="6" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Unplayed">
+    <cfRule type="containsText" priority="6" operator="containsText" dxfId="5" text="Unplayed">
       <formula>NOT(ISERROR(SEARCH("Unplayed",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Playing">
+    <cfRule type="containsText" priority="7" operator="containsText" dxfId="3" text="Playing">
       <formula>NOT(ISERROR(SEARCH("Playing",C1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="8" operator="beginsWith" text="Played">
+    <cfRule type="beginsWith" priority="8" operator="beginsWith" dxfId="3" text="Played">
       <formula>LEFT(C1,LEN("Played"))="Played"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Ignore">
+    <cfRule type="containsText" priority="9" operator="containsText" dxfId="2" text="Ignore">
       <formula>NOT(ISERROR(SEARCH("Ignore",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Finished">
+    <cfRule type="containsText" priority="10" operator="containsText" dxfId="1" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="Quit">
+    <cfRule type="containsText" priority="11" operator="containsText" dxfId="0" text="Quit">
       <formula>NOT(ISERROR(SEARCH("Quit",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1049,41 +1090,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="35.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="12" t="str">
+    <row r="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Untouched Site Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Tony Stark</t>
+        </is>
+      </c>
+      <c r="B2" s="12">
         <f>HYPERLINK("https://www.Stark.com/","Website")</f>
-        <v>Website</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>19</v>
+        <v/>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>"=HYPERLINK("https://www.Stark.com/","Website")"</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/test/excel_test.xlsx
+++ b/test/excel_test.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -42,6 +42,12 @@
       <color theme="10"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -177,7 +183,227 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.7999816888943144"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.249946592608417"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.7999816888943144"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.7999816888943144"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.7999816888943144"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31B149"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.7999816888943144"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.249946592608417"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.7999816888943144"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.7999816888943144"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.7999816888943144"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31B149"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -738,11 +964,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -751,8 +977,8 @@
     <col width="30.7109375" customWidth="1" style="4" min="2" max="2"/>
     <col width="18.28515625" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
     <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="2" min="5" max="238"/>
-    <col width="9.140625" customWidth="1" style="2" min="239" max="16384"/>
+    <col width="9.140625" customWidth="1" style="2" min="5" max="239"/>
+    <col width="9.140625" customWidth="1" style="2" min="240" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
@@ -885,55 +1111,24 @@
         <v>36</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="15" t="n">
+        <v>123</v>
+      </c>
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="10"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" priority="27" operator="equal" dxfId="10">
-      <formula>"Endless"</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="38" operator="containsText" dxfId="9" text="Removed">
-      <formula>NOT(ISERROR(SEARCH("Removed",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="42" operator="containsText" dxfId="8" text="Software">
-      <formula>NOT(ISERROR(SEARCH("Software",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="44" operator="containsText" dxfId="7" text="Demo">
-      <formula>NOT(ISERROR(SEARCH("Demo",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="45" operator="containsText" dxfId="6" text="Waiting">
-      <formula>NOT(ISERROR(SEARCH("Waiting",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="46" operator="containsText" dxfId="5" text="Unplayed">
-      <formula>NOT(ISERROR(SEARCH("Unplayed",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="47" operator="containsText" dxfId="3" text="Playing">
-      <formula>NOT(ISERROR(SEARCH("Playing",D1)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" priority="48" operator="beginsWith" dxfId="3" text="Played">
-      <formula>LEFT(D1,LEN("Played"))="Played"</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="49" operator="containsText" dxfId="2" text="Ignore">
-      <formula>NOT(ISERROR(SEARCH("Ignore",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="50" operator="containsText" dxfId="1" text="Finished">
-      <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="51" operator="containsText" dxfId="0" text="Quit">
-      <formula>NOT(ISERROR(SEARCH("Quit",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -956,8 +1151,8 @@
     <col width="8.85546875" customWidth="1" style="3" min="1" max="1"/>
     <col width="54.28515625" customWidth="1" style="4" min="2" max="2"/>
     <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="9.140625" customWidth="1" style="2" min="4" max="7"/>
-    <col width="9.140625" customWidth="1" style="2" min="8" max="16384"/>
+    <col width="9.140625" customWidth="1" style="2" min="4" max="8"/>
+    <col width="9.140625" customWidth="1" style="2" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">

--- a/test/excel_test.xlsx
+++ b/test/excel_test.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="228" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="228" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Links" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Links" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$1</definedName>
@@ -19,8 +20,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dddd\,\ mmmm\ d\,\ yyyy"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,10 +49,9 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -59,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -123,12 +125,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,342 +203,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="full_date_format" xfId="2"/>
+    <cellStyle name="comma_format" xfId="3" hidden="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.7999816888943144"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.249946592608417"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.7999816888943144"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.7999816888943144"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.7999816888943144"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF31B149"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.7999816888943144"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.249946592608417"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.7999816888943144"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.7999816888943144"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.7999816888943144"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF31B149"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.7999816888943144"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.249946592608417"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.7999816888943144"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.7999816888943144"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.7999816888943144"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF31B149"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -966,7 +667,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -977,8 +678,8 @@
     <col width="30.7109375" customWidth="1" style="4" min="2" max="2"/>
     <col width="18.28515625" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
     <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="2" min="5" max="239"/>
-    <col width="9.140625" customWidth="1" style="2" min="240" max="16384"/>
+    <col width="9.140625" customWidth="1" style="2" min="5" max="242"/>
+    <col width="9.140625" customWidth="1" style="2" min="243" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
@@ -1143,7 +844,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E15" sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1151,8 +852,8 @@
     <col width="8.85546875" customWidth="1" style="3" min="1" max="1"/>
     <col width="54.28515625" customWidth="1" style="4" min="2" max="2"/>
     <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="9.140625" customWidth="1" style="2" min="4" max="8"/>
-    <col width="9.140625" customWidth="1" style="2" min="9" max="16384"/>
+    <col width="9.140625" customWidth="1" style="2" min="4" max="11"/>
+    <col width="9.140625" customWidth="1" style="2" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="72" customFormat="1" customHeight="1" s="1" thickBot="1">
@@ -1285,6 +986,127 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Discount</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="inlineStr">
+        <is>
+          <t>Test 1</t>
+        </is>
+      </c>
+      <c r="B2" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A12">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
